--- a/biology/Zoologie/Engaeus/Engaeus.xlsx
+++ b/biology/Zoologie/Engaeus/Engaeus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Engaeus est un genre d'écrevisses d'eau douce que l'on trouve en Australie. Des 35 espèces que compte le genre Engaeus, 15 sont présentes en Tasmanie. Le comportement de ces écrevisses est pour le moins particulier. En effet, celles-ci vivent dans des terriers et construisent de grandes ouvertures en forme de cheminée.
 </t>
@@ -511,7 +523,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les 35 espèces de ce genres sont :
 Engaeus affinis
